--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -434,6 +434,25 @@
   <si>
     <t>尹彪有一个分析tomcat日志的定时器也可以关闭了</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD系统优化</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩、孙苏文、钱文博</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2938</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1239,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1567,7 +1586,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1795,24 +1814,58 @@
       <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42813</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42813</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
+      <c r="L4" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42813</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>114</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
@@ -5873,6 +5926,7 @@
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
